--- a/public/reportes/ods.xlsx
+++ b/public/reportes/ods.xlsx
@@ -127,7 +127,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>07-19-2022 04:49:41 pm</t>
+          <t>10-17-2022 01:51:34 pm</t>
         </is>
       </c>
     </row>
@@ -191,14 +191,9 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
+          <t>AGENCIA DE ENERGIA DEL ESTADO DE QUERETARO</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -218,14 +213,9 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Casa Queretana de las Artesanías</t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -240,19 +230,14 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Agropecuario</t>
+          <t>AGENCIA DE ENERGIA DEL ESTADO DE QUERETARO</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -279,7 +264,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Casa Queretana de las Artesanías</t>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -294,19 +279,19 @@
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>FIN DE LA POBREZA</t>
+          <t>EDUCACIÓN DE CALIDAD</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Casa Queretana de las Artesanías</t>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -321,7 +306,7 @@
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -353,14 +338,9 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Agropecuario</t>
+          <t>AGENCIA DE ENERGIA DEL ESTADO DE QUERETARO</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
@@ -402,19 +382,14 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Agropecuario</t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
@@ -441,7 +416,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Casa Queretana de las Artesanías</t>
+          <t>Secretaría de Desarrollo Agropecuario</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -456,7 +431,7 @@
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -483,19 +458,14 @@
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Agropecuario</t>
+          <t>AGENCIA DE ENERGIA DEL ESTADO DE QUERETARO</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -522,7 +492,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
+          <t>Casa Queretana de las Artesanías</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -537,19 +507,19 @@
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>FIN DE LA POBREZA</t>
+          <t>EDUCACIÓN DE CALIDAD</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Casa Queretana de las Artesanías</t>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -564,41 +534,36 @@
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Sustentable</t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>10000.00</t>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>Casa Queretana de las Artesanías</t>
+          <t>AGENCIA DE ENERGIA DEL ESTADO DE QUERETARO</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
@@ -613,7 +578,7 @@
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -652,7 +617,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Casa Queretana de las Artesanías</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -667,7 +632,7 @@
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -721,19 +686,14 @@
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Agropecuario</t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
@@ -753,14 +713,9 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>EDUCACIÓN DE CALIDAD</t>
-        </is>
-      </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
@@ -782,12 +737,12 @@
     <row r="29" spans="1:6">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>FIN DE LA POBREZA</t>
+          <t>EDUCACIÓN DE CALIDAD</t>
         </is>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
@@ -802,19 +757,14 @@
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>FIN DE LA POBREZA</t>
-        </is>
-      </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Aeropuerto Internacional de Querétaro</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
@@ -829,7 +779,7 @@
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -841,7 +791,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Agropecuario</t>
+          <t>Casa Queretana de las Artesanías</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
@@ -868,7 +818,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Casa Queretana de las Artesanías</t>
+          <t>Secretaría de Desarrollo Agropecuario</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
@@ -883,7 +833,7 @@
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -895,7 +845,7 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
@@ -922,7 +872,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Desarrollo Agropecuario</t>
+          <t>Casa Queretana de las Artesanías</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
@@ -937,19 +887,19 @@
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>FIN DE LA POBREZA</t>
+          <t>AGUA LIMPIA Y SANEAMIENTO</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>Admin </t>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
@@ -964,7 +914,7 @@
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -976,22 +926,767 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
+          <t>Casa Queretana de las Artesanías</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>EDUCACIÓN DE CALIDAD</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>AGENCIA DE ENERGIA DEL ESTADO DE QUERETARO</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
           <t>Secretaría de Desarrollo Agropecuario</t>
         </is>
       </c>
-      <c r="D36" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Desarrollo Agropecuario</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Casa Queretana de las Artesanías</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Desarrollo Agropecuario</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>AGENCIA DE ENERGIA DEL ESTADO DE QUERETARO</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>AGENCIA DE ENERGIA DEL ESTADO DE QUERETARO</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>EDUCACIÓN DE CALIDAD</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>AGENCIA DE ENERGIA DEL ESTADO DE QUERETARO</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Desarrollo Agropecuario</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Casa Queretana de las Artesanías</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Desarrollo Agropecuario</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Admin </t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>EDUCACIÓN DE CALIDAD</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>FIN DE LA POBREZA</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Desarrollo Agropecuario</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Aeropuerto Internacional de Querétaro</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>EDUCACIÓN DE CALIDAD</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Fideicomiso Promotor de Turismo en el Estado de Querétaro</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
